--- a/Flow rate.xlsx
+++ b/Flow rate.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Marca</t>
   </si>
@@ -204,7 +204,10 @@
     <t>pulso/mm</t>
   </si>
   <si>
-    <t>Micro step</t>
+    <t>Micro step (pulso/paso)</t>
+  </si>
+  <si>
+    <t>Frecuencia mínima (pulso/seg)</t>
   </si>
 </sst>
 </file>
@@ -216,17 +219,10 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +525,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +536,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,22 +1078,23 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
@@ -1138,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>14</v>
@@ -1384,8 +1383,8 @@
         <f t="shared" si="1"/>
         <v>4509256.6055673137</v>
       </c>
-      <c r="M6" s="44">
-        <f>(N8*M4*N4)/N6</f>
+      <c r="M6" s="43">
+        <f>(N7*M4*N4)/N6</f>
         <v>20357.96</v>
       </c>
       <c r="N6" s="8">
@@ -1393,20 +1392,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>12</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>30.54</v>
       </c>
       <c r="D7" s="27">
         <f>C7*1000</f>
         <v>30540</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>6</v>
       </c>
       <c r="F7" s="28">
@@ -1437,31 +1436,11 @@
         <f t="shared" si="1"/>
         <v>7237844.099702348</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" s="44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="39">
-        <f>(N2*M4*N4)/N6</f>
-        <v>15904656.25</v>
-      </c>
-      <c r="N8">
+      <c r="N7" s="43">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1510,7 +1489,7 @@
       <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="42">
         <f>C15*K13</f>
         <v>1272.3724999999999</v>
       </c>
@@ -1522,13 +1501,13 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="3">
         <v>50.8949</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="42">
         <f>K14*C14*C13/60</f>
         <v>67859.866666666669</v>
       </c>
@@ -1548,7 +1527,7 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="43">
+      <c r="C17" s="42">
         <f>C13*C14*C15/C16</f>
         <v>20357.96</v>
       </c>
@@ -1560,7 +1539,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G7 H3:H4 H6:H7 I3:I4 I6:I7 J3:J4 J6:J7" calculatedColumn="1"/>
+    <ignoredError sqref="G3 H3:H4 H6:H7 I3:I4 I6:I7 J3:J4 J6:J7 G5:G7" calculatedColumn="1"/>
     <ignoredError sqref="K2:L2" evalError="1"/>
     <ignoredError sqref="G2:I2 J2" evalError="1" calculatedColumn="1"/>
   </ignoredErrors>
@@ -1889,20 +1868,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>12</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>30.54</v>
       </c>
       <c r="D7" s="27">
         <f>C7*1000</f>
         <v>30540</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>6</v>
       </c>
       <c r="F7" s="28">

--- a/Flow rate.xlsx
+++ b/Flow rate.xlsx
@@ -8,9 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="12500" sheetId="1" r:id="rId1"/>
-    <sheet name="25000" sheetId="5" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -22,7 +21,7 @@
     <author>Lisbeth</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,20 +41,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-10 uL</t>
+mínimo debido al método de generación
+#define MIN_FREQ 31</t>
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Lisbeth</author>
-  </authors>
-  <commentList>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se determinó experimentalmente que el motor con reductor de 50,9 patina después de este valor</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0">
       <text>
         <r>
@@ -85,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Marca</t>
   </si>
@@ -114,9 +128,6 @@
     <t>Volumen (mL)</t>
   </si>
   <si>
-    <t>Frecuencia mínima (pulso/paso)</t>
-  </si>
-  <si>
     <t>vueltaMotor/1vueltaEje (del reductor)</t>
   </si>
   <si>
@@ -129,9 +140,6 @@
     <t>pasos/vuelta motor</t>
   </si>
   <si>
-    <t>Frecuencia mánima (pulso/paso)</t>
-  </si>
-  <si>
     <t>Flujo mín (uL/h)</t>
   </si>
   <si>
@@ -153,12 +161,6 @@
     <t>Rymco</t>
   </si>
   <si>
-    <t>Frecuencia Minima</t>
-  </si>
-  <si>
-    <t>Frecuencia Maxima</t>
-  </si>
-  <si>
     <t>Multiplicador</t>
   </si>
   <si>
@@ -174,9 +176,6 @@
     <t>RPM motor</t>
   </si>
   <si>
-    <t>Calibracion</t>
-  </si>
-  <si>
     <t>pulso/paso</t>
   </si>
   <si>
@@ -208,6 +207,12 @@
   </si>
   <si>
     <t>Frecuencia mínima (pulso/seg)</t>
+  </si>
+  <si>
+    <t>Calibración teórica</t>
+  </si>
+  <si>
+    <t>Frecuencia máxima (pulso/paso)</t>
   </si>
 </sst>
 </file>
@@ -261,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -359,21 +364,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
         <color theme="3" tint="0.39997558519241921"/>
       </right>
       <top style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
       </left>
       <right style="thin">
         <color theme="3" tint="0.39997558519241921"/>
@@ -387,7 +546,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -397,7 +556,7 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
       </left>
       <right style="thin">
         <color theme="3" tint="0.39997558519241921"/>
@@ -407,15 +566,67 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
       </left>
       <right style="thin">
         <color theme="3" tint="0.39997558519241921"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,28 +653,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -500,7 +692,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,99 +726,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="3" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="3" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="3" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="3" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF538DD5"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF538DD5"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF538DD5"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF538DD5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -723,40 +887,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L7" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:L7"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Volumen Jeringa (mL)" dataDxfId="15"/>
-    <tableColumn id="2" name="Marca"/>
-    <tableColumn id="3" name="Longitud (mm)"/>
-    <tableColumn id="4" name="Longitud (um)"/>
-    <tableColumn id="5" name="Volumen (mL)"/>
-    <tableColumn id="6" name="Volumen (uL)" dataDxfId="14"/>
-    <tableColumn id="7" name="Flujo min (mL/min)" dataDxfId="13">
-      <calculatedColumnFormula>($M$2/$M$6)*(60/1)*(1000/$D$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="Flujo máx (mL/min)" dataDxfId="12">
-      <calculatedColumnFormula>($N$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="Flujo mín (uL/h)" dataDxfId="11">
-      <calculatedColumnFormula>($M$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="Flujo máx (uL/h)" dataDxfId="10">
-      <calculatedColumnFormula>($N$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="Flujo min (nL/min)">
-      <calculatedColumnFormula>G2*1000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Flujo máx (nL/min)" dataDxfId="9">
-      <calculatedColumnFormula>H2*1000000</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla25" displayName="Tabla25" ref="A1:L7" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L7" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:L7"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Volumen Jeringa (mL)" dataDxfId="6"/>
@@ -789,7 +920,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1075,24 +1206,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1100,94 +1234,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>14</v>
+      <c r="M1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="4" t="e">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="36" t="e">
+      <c r="H2" s="26" t="e">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="18" t="e">
+      <c r="I2" s="9" t="e">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J2" s="38" t="e">
+      <c r="J2" s="28" t="e">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K2" s="18" t="e">
+      <c r="K2" s="9" t="e">
         <f t="shared" ref="K2:K7" si="0">G2*1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L2" s="18" t="e">
+      <c r="L2" s="9" t="e">
         <f t="shared" ref="L2:L7" si="1">H2*1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="49">
         <v>31</v>
       </c>
-      <c r="N2" s="30">
-        <v>12500</v>
+      <c r="N2" s="50">
+        <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="14">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>48.04</v>
@@ -1200,48 +1334,48 @@
         <f>Tabla2[[#This Row],[Volumen (uL)]]/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="15">
         <v>8</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="20">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
         <v>1.5214779956596616E-5</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
-        <v>6.1349919179825062E-3</v>
+        <v>1.2269983835965012E-2</v>
       </c>
       <c r="I3" s="5">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
         <v>0.91288679739579726</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="28">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
-        <v>368.09951507895045</v>
-      </c>
-      <c r="K3" s="18">
+        <v>736.19903015790089</v>
+      </c>
+      <c r="K3" s="9">
         <f t="shared" si="0"/>
         <v>15.214779956596617</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="9">
         <f t="shared" si="1"/>
-        <v>6134.9919179825065</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>10</v>
+        <v>12269.983835965013</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10">
         <v>28.1</v>
       </c>
       <c r="D4" s="2">
@@ -1251,47 +1385,47 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="16">
         <f>E4*1000</f>
         <v>500</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="20">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
         <v>1.6257073601310087E-3</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
-        <v>0.65552716134314859</v>
-      </c>
-      <c r="I4" s="18">
+        <v>1.3110543226862972</v>
+      </c>
+      <c r="I4" s="9">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
         <v>97.542441607860539</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="28">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
-        <v>39331.629680588929</v>
-      </c>
-      <c r="K4" s="18">
+        <v>78663.259361177857</v>
+      </c>
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>1625.7073601310087</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="9">
         <f t="shared" si="1"/>
-        <v>655527.16134314856</v>
-      </c>
-      <c r="M4" s="11">
+        <v>1311054.3226862971</v>
+      </c>
+      <c r="M4" s="49">
         <v>200</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="53">
         <v>50.8949</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>15.86</v>
@@ -1303,47 +1437,47 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="16">
         <f>E5*1000</f>
         <v>1000</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="20">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
         <v>5.7607032559497283E-3</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
-        <v>2.3228642161087611</v>
-      </c>
-      <c r="I5" s="18">
+        <v>4.6457284322175223</v>
+      </c>
+      <c r="I5" s="9">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
         <v>345.64219535698373</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="28">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
-        <v>139371.85296652571</v>
-      </c>
-      <c r="K5" s="18">
+        <v>278743.70593305142</v>
+      </c>
+      <c r="K5" s="9">
         <f>G5*1000000</f>
         <v>5760.7032559497284</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="9">
         <f>H5*1000000</f>
-        <v>2322864.2161087613</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="16" t="s">
+        <v>4645728.4322175225</v>
+      </c>
+      <c r="M5" s="54" t="s">
         <v>11</v>
       </c>
+      <c r="N5" s="55" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>16.34</v>
@@ -1355,191 +1489,225 @@
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="16">
         <f>E6*1000</f>
         <v>2000</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="20">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
         <v>1.1182956381806939E-2</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
-        <v>4.5092566055673133</v>
-      </c>
-      <c r="I6" s="18">
+        <v>9.0185132111346267</v>
+      </c>
+      <c r="I6" s="9">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
         <v>670.97738290841642</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="28">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
-        <v>270555.39633403887</v>
-      </c>
-      <c r="K6" s="18">
+        <v>541110.79266807775</v>
+      </c>
+      <c r="K6" s="9">
         <f t="shared" si="0"/>
         <v>11182.95638180694</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>4509256.6055673137</v>
-      </c>
-      <c r="M6" s="43">
+        <v>9018513.2111346275</v>
+      </c>
+      <c r="M6" s="56">
         <f>(N7*M4*N4)/N6</f>
         <v>20357.96</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="57">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="29">
         <v>12</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="31">
         <v>30.54</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="18">
         <f>C7*1000</f>
         <v>30540</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="31">
         <v>6</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="19">
         <f>E7*1000</f>
         <v>6000</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="20">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$7/$D$7)</f>
         <v>1.7949853367261823E-2</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$7/$D$7)</f>
-        <v>7.2378440997023477</v>
-      </c>
-      <c r="I7" s="18">
+        <v>14.475688199404695</v>
+      </c>
+      <c r="I7" s="9">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$7/$D$7)</f>
         <v>1076.9912020357094</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="28">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$7/$D$7)</f>
-        <v>434270.64598214091</v>
-      </c>
-      <c r="K7" s="18">
+        <v>868541.29196428182</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>17949.853367261825</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>7237844.099702348</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="43">
+        <v>14475688.199404696</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="59">
         <v>16</v>
       </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="43">
+        <v>16</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="44">
+        <v>200</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10">
+        <f>F9*B9</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32">
+        <f>C11*J9</f>
+        <v>1272.3724999999999</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="44">
+        <v>50.8949</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="J11" s="32">
+        <f>J10*C10*C9/60</f>
+        <v>67859.866666666669</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="58"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="44">
+        <v>8</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="A13" s="35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <f>H13*C13</f>
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="42">
-        <f>C15*K13</f>
-        <v>1272.3724999999999</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <v>50.8949</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="42">
-        <f>K14*C14*C13/60</f>
-        <v>67859.866666666669</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="45">
+        <f>C9*C10*C11/C12</f>
+        <v>20357.96</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="42">
-        <f>C13*C14*C15/C16</f>
-        <v>20357.96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
+      <c r="E13" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3 H3:H4 H6:H7 I3:I4 I6:I7 J3:J4 J6:J7 G5:G7" calculatedColumn="1"/>
+    <ignoredError sqref="G3:G4 H3:H4 H6:H7 I3:I4 I6:I7 J3:J4 J6:J7 G5:G7" calculatedColumn="1"/>
     <ignoredError sqref="K2:L2" evalError="1"/>
     <ignoredError sqref="G2:I2 J2" evalError="1" calculatedColumn="1"/>
   </ignoredErrors>
@@ -1551,380 +1719,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="4" t="e">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" s="36" t="e">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="18" t="e">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="38" t="e">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="18" t="e">
-        <f t="shared" ref="K2:L7" si="0">G2*1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="11">
-        <v>32</v>
-      </c>
-      <c r="N2" s="30">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <f>10/1000</f>
-        <v>0.01</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6">
-        <v>48.04</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3*1000</f>
-        <v>48040</v>
-      </c>
-      <c r="E3" s="6">
-        <f>Tabla25[[#This Row],[Volumen (uL)]]/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F3" s="24">
-        <v>8</v>
-      </c>
-      <c r="G3" s="29">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
-        <v>7.8527896550176105E-6</v>
-      </c>
-      <c r="H3" s="37">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
-        <v>6.1349919179825062E-3</v>
-      </c>
-      <c r="I3" s="5">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
-        <v>0.47116737930105657</v>
-      </c>
-      <c r="J3" s="38">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
-        <v>368.09951507895045</v>
-      </c>
-      <c r="K3" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8527896550176104</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" si="0"/>
-        <v>6134.9919179825065</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19">
-        <v>28.1</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4*1000</f>
-        <v>28100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="25">
-        <f>E4*1000</f>
-        <v>500</v>
-      </c>
-      <c r="G4" s="29">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
-        <v>8.3907476651923034E-4</v>
-      </c>
-      <c r="H4" s="37">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
-        <v>0.65552716134314859</v>
-      </c>
-      <c r="I4" s="18">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
-        <v>50.344485991153825</v>
-      </c>
-      <c r="J4" s="38">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
-        <v>39331.629680588929</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="0"/>
-        <v>839.07476651923037</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="0"/>
-        <v>655527.16134314856</v>
-      </c>
-      <c r="M4" s="11">
-        <v>200</v>
-      </c>
-      <c r="N4" s="12">
-        <v>50.8949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15.86</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5*1000</f>
-        <v>15860</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <f>E5*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="G5" s="29">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
-        <v>2.9732661966192148E-3</v>
-      </c>
-      <c r="H5" s="37">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
-        <v>2.3228642161087611</v>
-      </c>
-      <c r="I5" s="18">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
-        <v>178.39597179715287</v>
-      </c>
-      <c r="J5" s="38">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
-        <v>139371.85296652571</v>
-      </c>
-      <c r="K5" s="18">
-        <f>G5*1000000</f>
-        <v>2973.266196619215</v>
-      </c>
-      <c r="L5" s="18">
-        <f>H5*1000000</f>
-        <v>2322864.2161087613</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>16.34</v>
-      </c>
-      <c r="D6" s="2">
-        <f>C6*1000</f>
-        <v>16340</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="25">
-        <f>E6*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="G6" s="29">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
-        <v>5.7718484551261629E-3</v>
-      </c>
-      <c r="H6" s="37">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
-        <v>4.5092566055673133</v>
-      </c>
-      <c r="I6" s="18">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
-        <v>346.31090730756972</v>
-      </c>
-      <c r="J6" s="38">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
-        <v>270555.39633403887</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>5771.8484551261627</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="0"/>
-        <v>4509256.6055673137</v>
-      </c>
-      <c r="M6" s="17">
-        <f>(M2*M4*N4)/N6</f>
-        <v>40715.919999999998</v>
-      </c>
-      <c r="N6" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
-        <v>12</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="41">
-        <v>30.54</v>
-      </c>
-      <c r="D7" s="27">
-        <f>C7*1000</f>
-        <v>30540</v>
-      </c>
-      <c r="E7" s="41">
-        <v>6</v>
-      </c>
-      <c r="F7" s="28">
-        <f>E7*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="G7" s="29">
-        <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$7/$D$7)</f>
-        <v>9.2644404476190066E-3</v>
-      </c>
-      <c r="H7" s="37">
-        <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$7/$D$7)</f>
-        <v>7.2378440997023477</v>
-      </c>
-      <c r="I7" s="18">
-        <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$7/$D$7)</f>
-        <v>555.86642685714037</v>
-      </c>
-      <c r="J7" s="38">
-        <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$7/$D$7)</f>
-        <v>434270.64598214091</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>9264.4404476190066</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="0"/>
-        <v>7237844.099702348</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K2:L2" evalError="1"/>
-    <ignoredError sqref="G2:J2" evalError="1" calculatedColumn="1"/>
-    <ignoredError sqref="G3:G7 H3:H4 H6:H7 I3:I4 I6:I7 J3:J4 J6:J7" calculatedColumn="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1934,20 +1737,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>